--- a/biology/Zoologie/Hippodamia_glacialis/Hippodamia_glacialis.xlsx
+++ b/biology/Zoologie/Hippodamia_glacialis/Hippodamia_glacialis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hippodamia glacialis (anglais : glacial ladybug) est une espèce d'insectes coléoptères de la famille des coccinellidés, qui se rencontre en Amérique du Nord. Il peut atteindre de 6 jusqu'à 8 mm de long.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa livrée varie du jaune vif au vermillon, à huit taches noires de taille variable, notamment les deux points frontaux. Certains spécimens peuvent présentent deux taches latérales fusionnées. Son pronotum est noir et maculé de 2 taches blanches arquées, le limbe est marginé de blanc, sauf sur la portion postérieure. Ses antennes sont petites, ses yeux gris bleuté. Ses fémurs sont noirâtres, ses pattes brunâtres.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En Amérique du Nord et sans égard aux sous-espèces, elle se rencontre de la Californie à la Caroline du Nord, de l'Alberta jusqu'au sud de l'Ontario.
 </t>
@@ -573,9 +589,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>On lui connait[1] trois sous-espèces en Amérique du Nord :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>On lui connait trois sous-espèces en Amérique du Nord :
 Hippodamia glacialis glacialis : du Colorado à la Caroline du Nord, de la Saskatchewan jusqu'au sud de l'Ontario ;
 Hippodamia glacialis lecontei : du sud de la Californie et Nouveau-Mexique jusqu'en Alberta et Saskatchewan ;
 Hippodamia glacialis extensa.</t>
